--- a/app/10-1_Toán_HK1_24-25.xlsx
+++ b/app/10-1_Toán_HK1_24-25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,81 +436,103 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>student_name</t>
+          <t>#</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>student_dob</t>
+          <t>Họ và tên</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Ngày sinh</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>15p(1)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>15p(2)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>45p(1)</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>ck</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>dtb</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>Student 2</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>2001-02-02</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>8</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="F2" t="n">
         <v>9</v>
       </c>
-      <c r="E2" t="n">
+      <c r="G2" t="n">
         <v>10</v>
       </c>
-      <c r="F2" t="n">
-        <v>9.300000000000001</v>
+      <c r="H2" t="n">
+        <v>9.1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>Student 3</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>2002-03-03</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>8</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="F3" t="n">
         <v>7</v>
       </c>
-      <c r="E3" t="n">
+      <c r="G3" t="n">
         <v>7</v>
       </c>
-      <c r="F3" t="n">
-        <v>7.2</v>
+      <c r="H3" t="n">
+        <v>6.9</v>
       </c>
     </row>
   </sheetData>
